--- a/biology/Botanique/Hepatica_nobilis/Hepatica_nobilis.xlsx
+++ b/biology/Botanique/Hepatica_nobilis/Hepatica_nobilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anémone hépatique
 L'Anémone hépatique, Hépatique noble, Hépatique à trois lobes (Hepatica nobilis) est une espèce de plantes herbacées vivaces de la famille des Ranunculaceae, du genre Hepatica.
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonyme : Anemone hepatica L., 1753
 Noms français recommandés : Anémone hépatique, Hépatique noble, Hépatique à trois lobes.
-Noms français secondaires ou régionaux : Herbe au foie, Herbe de la Trinité[1].
+Noms français secondaires ou régionaux : Herbe au foie, Herbe de la Trinité.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante duveteuse, aux feuilles généralement persistantes pétiolées, en rosette, à trois lobes vert dessus, souvent brun rougeâtre ou violettes dessous. Les fleurs sont généralement bleues (parfois aussi blanches, roses ou pourprées) avec de cinq à dix sépales ovales.
 C'est une plante à la floraison précoce (mars-avril) dont il existe des variétés cultivées.
@@ -577,7 +593,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : fleur solitaire terminale
@@ -619,7 +637,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hepatica nobilis var. hepatica
 Hepatica nobilis var. pyrenaica
@@ -652,7 +672,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Séchée, elle peut être utilisée pour ses propriétés diurétiques en macération[réf. nécessaire] dans de l'eau ou du vin.
 Elle est signalée comme toxique dans le livre-guide "A la découverte des fleurs des Alpes" [LIBRIS].
@@ -684,7 +706,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>France : espèce bénéficiant d'un arrêté de protection en Haute-Normandie, Franche-Comté et Île-de-France</t>
         </is>
